--- a/data/trans_camb/P14B23_2016_2023-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14B23_2016_2023-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>3.607196148636107</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2.362427443032597</v>
+        <v>2.362427443032598</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2.989436775550319</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.420689762367391</v>
+        <v>1.486347189880771</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2851113731694702</v>
+        <v>-0.190056733261513</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.133936992997829</v>
+        <v>1.269385533085061</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.913179547301754</v>
+        <v>6.013604499946995</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.802427532269664</v>
+        <v>4.984055742147085</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.794892270457778</v>
+        <v>4.766870250439518</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>1.328358463499786</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2693955425786127</v>
+        <v>0.2693955425786129</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.4854286380212967</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.4095208478486482</v>
+        <v>0.4050656337499632</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03088513718809746</v>
+        <v>-0.01717378002859955</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1658916415811959</v>
+        <v>0.1893293643635473</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.034677609039583</v>
+        <v>3.306353317381847</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6334332976985587</v>
+        <v>0.6821089883768046</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9162494626021687</v>
+        <v>0.9164006904560201</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.66832123914286</v>
+        <v>1.668321239142859</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1.932179986389459</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8490375159822952</v>
+        <v>0.769474442265609</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7910634994894647</v>
+        <v>0.6958738126206271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.093906977914278</v>
+        <v>1.11945586983204</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.646965546657304</v>
+        <v>2.598946862641093</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.004434452706694</v>
+        <v>3.067864195305056</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.561921409737618</v>
+        <v>2.584912129127579</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>1.437745267753883</v>
+        <v>1.437745267753882</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.6216656913360095</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4961129682854254</v>
+        <v>0.4965186176359606</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1983914462979931</v>
+        <v>0.1964937000097715</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4215620822449206</v>
+        <v>0.4381372992185215</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.323649274619016</v>
+        <v>3.163768965865542</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.19952352131955</v>
+        <v>1.22356330481826</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.378780361506968</v>
+        <v>1.444291096563</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8404162324329544</v>
+        <v>0.9609764276486534</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04928337889889901</v>
+        <v>0.122588683536432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8681770378909397</v>
+        <v>0.9526849851803902</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.929583520215884</v>
+        <v>4.079682361805287</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.022198161655076</v>
+        <v>3.110440001019801</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.104690954819312</v>
+        <v>3.054552851934269</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2931322700909947</v>
+        <v>0.4293262067473843</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0874458428771876</v>
+        <v>-0.1717738613687179</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.639464242387123</v>
+        <v>0.5329669160199302</v>
       </c>
     </row>
     <row r="21">
@@ -862,10 +862,10 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>6.268547411221975</v>
+        <v>6.546302400734204</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>9.409859025211517</v>
+        <v>8.542289168402791</v>
       </c>
     </row>
     <row r="22">
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>1.967808868057535</v>
+        <v>1.967808868057534</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>1.550687136203653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.763063908038331</v>
+        <v>1.763063908038333</v>
       </c>
     </row>
     <row r="23">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.214885217806108</v>
+        <v>1.25119254849448</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6058086409087313</v>
+        <v>0.6118941726655718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.133797976347583</v>
+        <v>1.177717165522525</v>
       </c>
     </row>
     <row r="24">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.787394796284235</v>
+        <v>2.758020439023568</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.509409035046344</v>
+        <v>2.537931128960936</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.362508602562698</v>
+        <v>2.379638039709808</v>
       </c>
     </row>
     <row r="25">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>1.429176325585142</v>
+        <v>1.429176325585141</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.3533524791834212</v>
+        <v>0.3533524791834213</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6045863744464693</v>
+        <v>0.60458637444647</v>
       </c>
     </row>
     <row r="26">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6889748054548853</v>
+        <v>0.7763824005290888</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.127063606403944</v>
+        <v>0.1226939075128949</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3363925790819339</v>
+        <v>0.37478870698952</v>
       </c>
     </row>
     <row r="27">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.516302647041699</v>
+        <v>2.551600263802053</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6630126601680847</v>
+        <v>0.6612133023281966</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9090513862229807</v>
+        <v>0.9192825108541246</v>
       </c>
     </row>
     <row r="28">
